--- a/test/resources/ou.xlsx
+++ b/test/resources/ou.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
   <si>
     <t>FilePath</t>
   </si>
@@ -31,27 +31,25 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>C:\Users\lenovo\Desktop\Adhoora\academics\year3\cs305\assignment3\test\resources\WhatsApp Image 2022-04-01 at 9.57.52 AM.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clean Code
-A Handbook of Agile
-Software Craftsmanship
-‘The Object Mentors:
-Robert C. Martin
-Michaol Fathers Tot R. Otinger
-“strey J Langr Bret Senuchert
-James W Granning Kova Dean Wampor
-‘Gojoe Mentor ie
-what yo mast do onder to cal yout a pofessona
-ing anyehing ese than your bet,
-Pars Mads
-*Iadanap
-London Mani
-Bg tresses =
-New Yor + Toon + Mon
-pmgynice Capetown Syaey
-</t>
+    <t>C:\Users\lenovo\Desktop\Adhoora\academics\year3\cs305\assignment3\test\resources\test_1.jpg</t>
+  </si>
+  <si>
+    <t>Not found</t>
+  </si>
+  <si>
+    <t>C:\Users\lenovo\Desktop\Adhoora\academics\year3\cs305\assignment3\test\resources\test_2.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\lenovo\Desktop\Adhoora\academics\year3\cs305\assignment3\test\resources\test_3.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\lenovo\Desktop\Adhoora\academics\year3\cs305\assignment3\test\resources\test_4.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\lenovo\Desktop\Adhoora\academics\year3\cs305\assignment3\test\resources\test_5.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\lenovo\Desktop\Adhoora\academics\year3\cs305\assignment3\test\resources\test_6.jpg</t>
   </si>
 </sst>
 </file>
@@ -383,13 +381,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,23 +404,105 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
         <v>6</v>
       </c>
     </row>
